--- a/AIND-Planning/experiments/heuristics_analysis_tables.xlsx
+++ b/AIND-Planning/experiments/heuristics_analysis_tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="340" windowWidth="20060" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="15660" yWindow="1800" windowWidth="23760" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Part 1" sheetId="1" r:id="rId1"/>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -757,16 +757,16 @@
         <v>9</v>
       </c>
       <c r="C9" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" s="7">
-        <v>3461</v>
+        <v>14663</v>
       </c>
       <c r="E9" s="7">
-        <v>6072</v>
+        <v>18098</v>
       </c>
       <c r="F9" s="7">
-        <v>27.157800000000002</v>
+        <v>123.91840000000001</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>17</v>
@@ -780,16 +780,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4071</v>
+        <v>195</v>
       </c>
       <c r="D10" s="7">
-        <v>7857</v>
+        <v>3664</v>
       </c>
       <c r="E10" s="7">
-        <v>7858</v>
+        <v>3665</v>
       </c>
       <c r="F10" s="7">
-        <v>120.85590000000001</v>
+        <v>20.981000000000002</v>
       </c>
       <c r="G10" s="7"/>
     </row>
@@ -801,16 +801,16 @@
         <v>11</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7">
-        <v>7356</v>
+        <v>18167</v>
       </c>
       <c r="E11" s="7">
-        <v>7358</v>
+        <v>18169</v>
       </c>
       <c r="F11" s="7">
-        <v>31.4102</v>
+        <v>67.877700000000004</v>
       </c>
       <c r="G11" s="7"/>
     </row>
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1008,16 +1008,16 @@
         <v>12</v>
       </c>
       <c r="C9" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4">
-        <v>7356</v>
+        <v>18167</v>
       </c>
       <c r="E9" s="4">
-        <v>7358</v>
+        <v>18169</v>
       </c>
       <c r="F9" s="4">
-        <v>30.478100000000001</v>
+        <v>67.269300000000001</v>
       </c>
       <c r="G9" s="5"/>
     </row>
@@ -1029,16 +1029,16 @@
         <v>13</v>
       </c>
       <c r="C10" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D10" s="4">
-        <v>858</v>
+        <v>5035</v>
       </c>
       <c r="E10" s="4">
-        <v>860</v>
+        <v>5037</v>
       </c>
       <c r="F10" s="4">
-        <v>3.9312999999999998</v>
+        <v>19.738399999999999</v>
       </c>
       <c r="G10" s="5"/>
     </row>
@@ -1050,16 +1050,16 @@
         <v>14</v>
       </c>
       <c r="C11" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4">
-        <v>7356</v>
+        <v>388</v>
       </c>
       <c r="E11" s="4">
-        <v>7358</v>
+        <v>390</v>
       </c>
       <c r="F11" s="4">
-        <v>3974.9553999999998</v>
+        <v>562.56849999999997</v>
       </c>
       <c r="G11" s="5"/>
     </row>
